--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_SwapFromBasisQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="19" r:id="rId4"/>
     <sheet name="1Y" sheetId="18" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="63">
   <si>
     <t>Currency</t>
   </si>
@@ -220,6 +217,9 @@
   <si>
     <t>21M</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +233,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -702,22 +702,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1012,7 +996,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -1024,13 +1008,13 @@
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="42" t="s">
         <v>35</v>
@@ -1039,14 +1023,14 @@
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -1055,7 +1039,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -1066,7 +1050,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -1077,7 +1061,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -1088,19 +1072,18 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -1111,15 +1094,15 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>33</v>
       </c>
@@ -1127,13 +1110,13 @@
       <c r="D12" s="43"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
         <v>0</v>
@@ -1143,7 +1126,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
         <v>8</v>
@@ -1153,7 +1136,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
         <v>9</v>
@@ -1163,7 +1146,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
         <v>10</v>
@@ -1173,7 +1156,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1205,7 +1188,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
@@ -1222,7 +1205,7 @@
     <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1236,7 +1219,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -1257,17 +1240,17 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Basis.xml"</f>
         <v>EUR_020_SwAB1E_Basis.xml</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="26" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(J2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="28" t="s">
         <v>13</v>
@@ -1306,7 +1289,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="28" t="s">
         <v>59</v>
@@ -1345,7 +1328,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="28" t="s">
         <v>60</v>
@@ -1384,7 +1367,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="28" t="s">
         <v>61</v>
@@ -1423,7 +1406,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="28" t="s">
         <v>14</v>
@@ -1462,7 +1445,7 @@
       </c>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -1501,7 +1484,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="28" t="s">
         <v>16</v>
@@ -1540,7 +1523,7 @@
       </c>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="28" t="s">
         <v>17</v>
@@ -1579,7 +1562,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="28" t="s">
         <v>18</v>
@@ -1618,7 +1601,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="28" t="s">
         <v>19</v>
@@ -1657,7 +1640,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
@@ -1696,7 +1679,7 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="28" t="s">
         <v>21</v>
@@ -1735,7 +1718,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="28" t="s">
         <v>22</v>
@@ -1774,7 +1757,7 @@
       </c>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="28" t="s">
         <v>23</v>
@@ -1813,7 +1796,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="28" t="s">
         <v>24</v>
@@ -1852,7 +1835,7 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="28" t="s">
         <v>36</v>
@@ -1891,7 +1874,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="28" t="s">
         <v>37</v>
@@ -1930,7 +1913,7 @@
       </c>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="28" t="s">
         <v>25</v>
@@ -1969,7 +1952,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="28" t="s">
         <v>38</v>
@@ -2008,7 +1991,7 @@
       </c>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="28" t="s">
         <v>39</v>
@@ -2047,7 +2030,7 @@
       </c>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="28" t="s">
         <v>40</v>
@@ -2086,7 +2069,7 @@
       </c>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
@@ -2125,7 +2108,7 @@
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="28" t="s">
         <v>26</v>
@@ -2164,7 +2147,7 @@
       </c>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="28" t="s">
         <v>42</v>
@@ -2203,7 +2186,7 @@
       </c>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="28" t="s">
         <v>43</v>
@@ -2242,7 +2225,7 @@
       </c>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="28" t="s">
         <v>44</v>
@@ -2281,7 +2264,7 @@
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="28" t="s">
         <v>45</v>
@@ -2320,7 +2303,7 @@
       </c>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="28" t="s">
         <v>27</v>
@@ -2359,7 +2342,7 @@
       </c>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="28" t="s">
         <v>46</v>
@@ -2398,7 +2381,7 @@
       </c>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="28" t="s">
         <v>47</v>
@@ -2437,7 +2420,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="28" t="s">
         <v>48</v>
@@ -2476,7 +2459,7 @@
       </c>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="28" t="s">
         <v>49</v>
@@ -2515,7 +2498,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="28" t="s">
         <v>28</v>
@@ -2554,7 +2537,7 @@
       </c>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="28" t="s">
         <v>29</v>
@@ -2593,7 +2576,7 @@
       </c>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="28" t="s">
         <v>30</v>
@@ -2632,7 +2615,7 @@
       </c>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="28" t="s">
         <v>31</v>
@@ -2671,7 +2654,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="28" t="s">
         <v>32</v>
@@ -2710,7 +2693,7 @@
       </c>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="12" thickBot="1">
+    <row r="40" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -2741,7 +2724,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
@@ -2758,7 +2741,7 @@
     <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2772,7 +2755,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -2793,17 +2776,17 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Basis.xml"</f>
         <v>EUR_020_SwAB3E_Basis.xml</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="26" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(J2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="28" t="s">
         <v>13</v>
@@ -2842,7 +2825,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="28" t="s">
         <v>59</v>
@@ -2881,7 +2864,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="28" t="s">
         <v>60</v>
@@ -2920,7 +2903,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="28" t="s">
         <v>61</v>
@@ -2959,7 +2942,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="28" t="s">
         <v>14</v>
@@ -2998,7 +2981,7 @@
       </c>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3037,7 +3020,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="28" t="s">
         <v>16</v>
@@ -3076,7 +3059,7 @@
       </c>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="28" t="s">
         <v>17</v>
@@ -3115,7 +3098,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="28" t="s">
         <v>18</v>
@@ -3154,7 +3137,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="28" t="s">
         <v>19</v>
@@ -3193,7 +3176,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
@@ -3232,7 +3215,7 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="28" t="s">
         <v>21</v>
@@ -3271,7 +3254,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="28" t="s">
         <v>22</v>
@@ -3310,7 +3293,7 @@
       </c>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="28" t="s">
         <v>23</v>
@@ -3349,7 +3332,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="28" t="s">
         <v>24</v>
@@ -3388,7 +3371,7 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="28" t="s">
         <v>36</v>
@@ -3427,7 +3410,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="28" t="s">
         <v>37</v>
@@ -3466,7 +3449,7 @@
       </c>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="28" t="s">
         <v>25</v>
@@ -3505,7 +3488,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="28" t="s">
         <v>38</v>
@@ -3544,7 +3527,7 @@
       </c>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="28" t="s">
         <v>39</v>
@@ -3583,7 +3566,7 @@
       </c>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="28" t="s">
         <v>40</v>
@@ -3622,7 +3605,7 @@
       </c>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
@@ -3661,7 +3644,7 @@
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="28" t="s">
         <v>26</v>
@@ -3700,7 +3683,7 @@
       </c>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="28" t="s">
         <v>42</v>
@@ -3739,7 +3722,7 @@
       </c>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="28" t="s">
         <v>43</v>
@@ -3778,7 +3761,7 @@
       </c>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="28" t="s">
         <v>44</v>
@@ -3817,7 +3800,7 @@
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="28" t="s">
         <v>45</v>
@@ -3856,7 +3839,7 @@
       </c>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="28" t="s">
         <v>27</v>
@@ -3895,7 +3878,7 @@
       </c>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="28" t="s">
         <v>46</v>
@@ -3934,7 +3917,7 @@
       </c>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="28" t="s">
         <v>47</v>
@@ -3973,7 +3956,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="28" t="s">
         <v>48</v>
@@ -4012,7 +3995,7 @@
       </c>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="28" t="s">
         <v>49</v>
@@ -4051,7 +4034,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="28" t="s">
         <v>28</v>
@@ -4090,7 +4073,7 @@
       </c>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="28" t="s">
         <v>29</v>
@@ -4129,7 +4112,7 @@
       </c>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="28" t="s">
         <v>30</v>
@@ -4168,7 +4151,7 @@
       </c>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="28" t="s">
         <v>31</v>
@@ -4207,7 +4190,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="28" t="s">
         <v>32</v>
@@ -4246,7 +4229,7 @@
       </c>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="12" thickBot="1">
+    <row r="40" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -4277,7 +4260,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
@@ -4295,7 +4278,7 @@
     <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4309,7 +4292,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -4330,17 +4313,17 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Basis.xml"</f>
         <v>EUR_020_SwAB6E_Basis.xml</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="26" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(J2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="28" t="s">
         <v>13</v>
@@ -4379,7 +4362,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="28" t="s">
         <v>59</v>
@@ -4418,7 +4401,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="28" t="s">
         <v>60</v>
@@ -4457,7 +4440,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="28" t="s">
         <v>61</v>
@@ -4496,7 +4479,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="28" t="s">
         <v>14</v>
@@ -4535,7 +4518,7 @@
       </c>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -4574,7 +4557,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="28" t="s">
         <v>16</v>
@@ -4613,7 +4596,7 @@
       </c>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="28" t="s">
         <v>17</v>
@@ -4652,7 +4635,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="28" t="s">
         <v>18</v>
@@ -4691,7 +4674,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="28" t="s">
         <v>19</v>
@@ -4730,7 +4713,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
@@ -4769,7 +4752,7 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="28" t="s">
         <v>21</v>
@@ -4808,7 +4791,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="28" t="s">
         <v>22</v>
@@ -4847,7 +4830,7 @@
       </c>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="28" t="s">
         <v>23</v>
@@ -4886,7 +4869,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="28" t="s">
         <v>24</v>
@@ -4925,7 +4908,7 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="28" t="s">
         <v>36</v>
@@ -4964,7 +4947,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="28" t="s">
         <v>37</v>
@@ -5003,7 +4986,7 @@
       </c>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="28" t="s">
         <v>25</v>
@@ -5042,7 +5025,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="28" t="s">
         <v>38</v>
@@ -5081,7 +5064,7 @@
       </c>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="28" t="s">
         <v>39</v>
@@ -5120,7 +5103,7 @@
       </c>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="28" t="s">
         <v>40</v>
@@ -5159,7 +5142,7 @@
       </c>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
@@ -5198,7 +5181,7 @@
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="28" t="s">
         <v>26</v>
@@ -5237,7 +5220,7 @@
       </c>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="28" t="s">
         <v>42</v>
@@ -5276,7 +5259,7 @@
       </c>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="28" t="s">
         <v>43</v>
@@ -5315,7 +5298,7 @@
       </c>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="28" t="s">
         <v>44</v>
@@ -5354,7 +5337,7 @@
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="28" t="s">
         <v>45</v>
@@ -5393,7 +5376,7 @@
       </c>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="28" t="s">
         <v>27</v>
@@ -5432,7 +5415,7 @@
       </c>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="28" t="s">
         <v>46</v>
@@ -5471,7 +5454,7 @@
       </c>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="28" t="s">
         <v>47</v>
@@ -5510,7 +5493,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="28" t="s">
         <v>48</v>
@@ -5549,7 +5532,7 @@
       </c>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="28" t="s">
         <v>49</v>
@@ -5588,7 +5571,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="28" t="s">
         <v>28</v>
@@ -5627,7 +5610,7 @@
       </c>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="28" t="s">
         <v>29</v>
@@ -5666,7 +5649,7 @@
       </c>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="28" t="s">
         <v>30</v>
@@ -5705,7 +5688,7 @@
       </c>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="28" t="s">
         <v>31</v>
@@ -5744,7 +5727,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="28" t="s">
         <v>32</v>
@@ -5783,7 +5766,7 @@
       </c>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="12" thickBot="1">
+    <row r="40" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -5814,7 +5797,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
@@ -5832,7 +5815,7 @@
     <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5846,7 +5829,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -5867,17 +5850,17 @@
         <f>Currency&amp;"_020_Sw"&amp;$C$3&amp;$D$3&amp;"_Basis.xml"</f>
         <v>EUR_020_SwAB12E_Basis.xml</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="26" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="K2" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(J2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
         <v/>
       </c>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="28" t="s">
         <v>13</v>
@@ -5916,7 +5899,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="28" t="s">
         <v>59</v>
@@ -5955,7 +5938,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="28" t="s">
         <v>60</v>
@@ -5994,7 +5977,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="28" t="s">
         <v>61</v>
@@ -6033,7 +6016,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="28" t="s">
         <v>14</v>
@@ -6072,7 +6055,7 @@
       </c>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -6111,7 +6094,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="28" t="s">
         <v>16</v>
@@ -6150,7 +6133,7 @@
       </c>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="28" t="s">
         <v>17</v>
@@ -6189,7 +6172,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="28" t="s">
         <v>18</v>
@@ -6228,7 +6211,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="28" t="s">
         <v>19</v>
@@ -6267,7 +6250,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="28" t="s">
         <v>20</v>
@@ -6306,7 +6289,7 @@
       </c>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="28" t="s">
         <v>21</v>
@@ -6345,7 +6328,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="28" t="s">
         <v>22</v>
@@ -6384,7 +6367,7 @@
       </c>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="28" t="s">
         <v>23</v>
@@ -6423,7 +6406,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="28" t="s">
         <v>24</v>
@@ -6462,7 +6445,7 @@
       </c>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="28" t="s">
         <v>36</v>
@@ -6501,7 +6484,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="28" t="s">
         <v>37</v>
@@ -6540,7 +6523,7 @@
       </c>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="28" t="s">
         <v>25</v>
@@ -6579,7 +6562,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="28" t="s">
         <v>38</v>
@@ -6618,7 +6601,7 @@
       </c>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="28" t="s">
         <v>39</v>
@@ -6657,7 +6640,7 @@
       </c>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="28" t="s">
         <v>40</v>
@@ -6696,7 +6679,7 @@
       </c>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
@@ -6735,7 +6718,7 @@
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="28" t="s">
         <v>26</v>
@@ -6774,7 +6757,7 @@
       </c>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="28" t="s">
         <v>42</v>
@@ -6813,7 +6796,7 @@
       </c>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="28" t="s">
         <v>43</v>
@@ -6852,7 +6835,7 @@
       </c>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" s="28" t="s">
         <v>44</v>
@@ -6891,7 +6874,7 @@
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="28" t="s">
         <v>45</v>
@@ -6930,7 +6913,7 @@
       </c>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="28" t="s">
         <v>27</v>
@@ -6969,7 +6952,7 @@
       </c>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="28" t="s">
         <v>46</v>
@@ -7008,7 +6991,7 @@
       </c>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="28" t="s">
         <v>47</v>
@@ -7047,7 +7030,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="28" t="s">
         <v>48</v>
@@ -7086,7 +7069,7 @@
       </c>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="28" t="s">
         <v>49</v>
@@ -7125,7 +7108,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="28" t="s">
         <v>28</v>
@@ -7164,7 +7147,7 @@
       </c>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
       <c r="B36" s="28" t="s">
         <v>29</v>
@@ -7203,7 +7186,7 @@
       </c>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="35"/>
       <c r="B37" s="28" t="s">
         <v>30</v>
@@ -7242,7 +7225,7 @@
       </c>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="28" t="s">
         <v>31</v>
@@ -7281,7 +7264,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="28" t="s">
         <v>32</v>
@@ -7320,7 +7303,7 @@
       </c>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="12" thickBot="1">
+    <row r="40" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_020_SwapFromBasisQuotes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="62">
   <si>
     <t>Currency</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>21M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1075,9 @@
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>62</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1241,12 +1239,12 @@
         <v>EUR_020_SwAB1E_Basis.xml</v>
       </c>
       <c r="J2" s="26" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" s="27" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K2" s="27" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="L2" s="36"/>
     </row>
@@ -2777,12 +2775,12 @@
         <v>EUR_020_SwAB3E_Basis.xml</v>
       </c>
       <c r="J2" s="26" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" s="27" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K2" s="27" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="L2" s="36"/>
     </row>
@@ -4314,12 +4312,12 @@
         <v>EUR_020_SwAB6E_Basis.xml</v>
       </c>
       <c r="J2" s="26" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" s="27" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K2" s="27" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="L2" s="36"/>
     </row>
@@ -5851,12 +5849,12 @@
         <v>EUR_020_SwAB12E_Basis.xml</v>
       </c>
       <c r="J2" s="26" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" s="27" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(J3:J39,SerializationPath&amp;I2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K2" s="27" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(J2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="L2" s="36"/>
     </row>
